--- a/height_df_boy.xlsx
+++ b/height_df_boy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,9 +544,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>110</v>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
         <v>1</v>
       </c>
@@ -589,72 +587,7 @@
       <c r="R2" t="n">
         <v>139.292</v>
       </c>
-      <c r="S2" t="n">
-        <v>-1.737353481802299</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>john123</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>65</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>130</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>112.3895</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.04195</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4.7147</v>
-      </c>
-      <c r="I3" t="n">
-        <v>88.816</v>
-      </c>
-      <c r="J3" t="n">
-        <v>93.53100000000001</v>
-      </c>
-      <c r="K3" t="n">
-        <v>98.245</v>
-      </c>
-      <c r="L3" t="n">
-        <v>102.96</v>
-      </c>
-      <c r="M3" t="n">
-        <v>107.675</v>
-      </c>
-      <c r="N3" t="n">
-        <v>112.39</v>
-      </c>
-      <c r="O3" t="n">
-        <v>117.104</v>
-      </c>
-      <c r="P3" t="n">
-        <v>121.819</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>126.534</v>
-      </c>
-      <c r="R3" t="n">
-        <v>131.248</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.735201044855179</v>
-      </c>
+      <c r="S2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/height_df_boy.xlsx
+++ b/height_df_boy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,7 +544,9 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>110</v>
+      </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
@@ -587,7 +589,72 @@
       <c r="R2" t="n">
         <v>139.292</v>
       </c>
-      <c r="S2" t="inlineStr"/>
+      <c r="S2" t="n">
+        <v>-1.737353481802299</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>john123</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>65</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>130</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>112.3895</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04195</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4.7147</v>
+      </c>
+      <c r="I3" t="n">
+        <v>88.816</v>
+      </c>
+      <c r="J3" t="n">
+        <v>93.53100000000001</v>
+      </c>
+      <c r="K3" t="n">
+        <v>98.245</v>
+      </c>
+      <c r="L3" t="n">
+        <v>102.96</v>
+      </c>
+      <c r="M3" t="n">
+        <v>107.675</v>
+      </c>
+      <c r="N3" t="n">
+        <v>112.39</v>
+      </c>
+      <c r="O3" t="n">
+        <v>117.104</v>
+      </c>
+      <c r="P3" t="n">
+        <v>121.819</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>126.534</v>
+      </c>
+      <c r="R3" t="n">
+        <v>131.248</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3.735201044855179</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
